--- a/MEDIA/_ 1102      _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102      _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102      _301_2020-10-29~2020-10-29)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102      _301_2020-12-04~2020-12-04)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>15076672</v>
+        <v>20193035</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新竹延平                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>支付林大為-沖11/30#112261           </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="G4" t="n">
-        <v>15091272</v>
+        <v>20189335</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000255</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>神岡昌平	                                   </t>
+          <t>花蓮東華	                                   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13118</v>
+        <v>28569</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15104390</v>
+        <v>20217904</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000931</t>
+          <t>1000950</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>楊梅青山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付黃俊霖-沖11/30#112261           </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5498</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-2549</v>
       </c>
       <c r="G6" t="n">
-        <v>15109888</v>
+        <v>20215355</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110764</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000887</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>支付11-0133 鐘婉屏費用申請             </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11105</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="G7" t="n">
-        <v>15120993</v>
+        <v>20209355</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>土城中央                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>匯振弘-支付11-0135 劉淑姬費用申請         </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25614</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-26250</v>
       </c>
       <c r="G8" t="n">
-        <v>15146607</v>
+        <v>20183105</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112266</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000397</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>林口醒吾                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>退訂                            </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29539</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G9" t="n">
-        <v>15176146</v>
+        <v>20182105</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112294</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000099</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>竹東仁愛                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>支付許仁傑-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31253</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-12480</v>
       </c>
       <c r="G10" t="n">
-        <v>15207399</v>
+        <v>20169625</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000109</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新店建國                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>10910月台北展NO29-符美君/符建民-平鎮中山 暫收款</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43412</v>
+        <v>60000</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15250811</v>
+        <v>20229625</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000236</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>10910月台北展NO29-符美君/符建民-平鎮中山 保證金</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15260811</v>
+        <v>20279625</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新豐新興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>暫收-竹南龍山-張淑娟 工程款20萬            </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37105</v>
+        <v>200000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15297916</v>
+        <v>20479625</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000018</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付謝雅蓮-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="G14" t="n">
-        <v>15299413</v>
+        <v>20479605</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>板橋民族                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付謝雅蓮-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22872</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="G15" t="n">
-        <v>15322285</v>
+        <v>20475205</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000153</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中壢南園	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付黃凱祺-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16074</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-4250</v>
       </c>
       <c r="G16" t="n">
-        <v>15338359</v>
+        <v>20470955</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000866</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>彰化旭光	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付王景鴻-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23839</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6540</v>
       </c>
       <c r="G17" t="n">
-        <v>15362198</v>
+        <v>20464415</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000947</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台中精科	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17201</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-3829</v>
       </c>
       <c r="G18" t="n">
-        <v>15379399</v>
+        <v>20460586</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000890</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>桃園大興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6685</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-3627</v>
       </c>
       <c r="G19" t="n">
-        <v>15386084</v>
+        <v>20456959</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000941</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>花壇中正                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付顏于菁-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1713</v>
       </c>
       <c r="G20" t="n">
-        <v>15416884</v>
+        <v>20455246</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000382</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>高雄昌富                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付陳沛淇-沖11/30#112195           </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17208</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-3720</v>
       </c>
       <c r="G21" t="n">
-        <v>15434092</v>
+        <v>20451526</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>112251</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000262</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯109/12月:輝永實業有限公司租金           </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-39870</v>
       </c>
       <c r="G22" t="n">
-        <v>15460392</v>
+        <v>20411656</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>111941</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,31 +1216,1671 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>土城永寧	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>支付吳恩賜-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20406656</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>支付游宇宸-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4265</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20402391</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>匯109/12月周淑婷-南區辦公處租金-開立扣繳憑單    </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-6500</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20395891</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>111941</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>匯109/12月杜欣芳-中區辦公室租金-開立扣繳憑單    </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20387891</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>111941</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>支付黃隆玄-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3368</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20384523</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>支付胡毓樺-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2990</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20381533</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>支付陳俊維-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1232</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20380301</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>支付陳世偉-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4485</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20375816</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>支付楊俊志-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-315</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20375501</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>支付鄭維愉-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20375401</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>支付李家君-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-3730</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20371671</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>支付詹凱琳-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1695</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20369976</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>支付詹凱琳-沖11/30#112195           </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5975</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20364001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>支付太宇-沖11/30#112195            </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-355</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20363646</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>112251</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>迪呈企業有限公司(信格)10月應付款            </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-149780</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20213866</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>112228</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>匯東閔-沖11/30#112211-109/11月東閔油品 </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-280274</v>
+      </c>
+      <c r="G38" t="n">
+        <v>19933592</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>112212</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>                              </t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>10693</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15471085</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>110764</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1000935</t>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-96000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>19837592</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>112219</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-120000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>19717592</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>112214</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-120000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>19597592</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>112189</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-13800</v>
+      </c>
+      <c r="G42" t="n">
+        <v>19583792</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>112258</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-6269</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19577523</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>112277</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>120000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>19697523</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>112189</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>堤諾長庚                                    </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>93457</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19790980</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>112352</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4000024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>堤諾林口店                                   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>61482</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>19852462</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>112352</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4000023</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>台南中金院	                                  </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>102459</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>19954921</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000803</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北市懷德                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>22277</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>19977198</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000349</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>龍井竹坑                                    </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>20314</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>19997512</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000515</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>板橋三民	                                   </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>21500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20019012</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000936</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>蘇澳中山                                    </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>20244</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>20039256</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000406</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>神岡豐洲	                                   </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>19491</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>20058747</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000922</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>基隆新豐	                                   </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>33341</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20092088</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000841</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新營中正	                                   </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>15228</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20107316</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000834</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>高雄城峰	                                   </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>20867</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20128183</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000880</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>桃園中正長春	                                 </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>11994</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20140177</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000925</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>東勢東崎                                    </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>43109</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20183286</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000111</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>梧棲中興	                                   </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>15481</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20198767</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000898</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>板橋北門                                    </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>41008</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20239775</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000144</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>三重集美                                    </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>60808</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20300583</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000151</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中和環球	                                   </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>54000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20354583</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1000846</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>花蓮中山                                    </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>26311</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20380894</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>112295</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1000882</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>支付李豫如-沖11/30#112261           </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-3935</v>
+      </c>
+      <c r="G63" t="n">
+        <v>20376959</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>112266</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
